--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18344,13 +18344,13 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>45446.6495023148</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B661" t="n">
         <v>29498</v>
       </c>
       <c r="C661" t="n">
-        <v>4</v>
+        <v>4.03000020980835</v>
       </c>
       <c r="D661" t="n">
         <v>3.9300000667572</v>
@@ -18365,6 +18365,32 @@
         <v>160</v>
       </c>
       <c r="H661" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>45447.6494212963</v>
+      </c>
+      <c r="B662" t="n">
+        <v>5066</v>
+      </c>
+      <c r="C662" t="n">
+        <v>4.01999998092651</v>
+      </c>
+      <c r="D662" t="n">
+        <v>3.98000001907349</v>
+      </c>
+      <c r="E662" t="n">
+        <v>3.98000001907349</v>
+      </c>
+      <c r="F662" t="n">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="G662" t="s">
+        <v>160</v>
+      </c>
+      <c r="H662" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18370,13 +18370,13 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>45447.6494212963</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B662" t="n">
         <v>5066</v>
       </c>
       <c r="C662" t="n">
-        <v>4.01999998092651</v>
+        <v>4.03000020980835</v>
       </c>
       <c r="D662" t="n">
         <v>3.98000001907349</v>
@@ -18391,6 +18391,32 @@
         <v>160</v>
       </c>
       <c r="H662" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>45448.6453125</v>
+      </c>
+      <c r="B663" t="n">
+        <v>17225</v>
+      </c>
+      <c r="C663" t="n">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="D663" t="n">
+        <v>3.98000001907349</v>
+      </c>
+      <c r="E663" t="n">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="F663" t="n">
+        <v>4.01000022888184</v>
+      </c>
+      <c r="G663" t="s">
+        <v>182</v>
+      </c>
+      <c r="H663" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18396,7 +18396,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>45448.6453125</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B663" t="n">
         <v>17225</v>
@@ -18417,6 +18417,32 @@
         <v>182</v>
       </c>
       <c r="H663" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>45449.6496412037</v>
+      </c>
+      <c r="B664" t="n">
+        <v>5584</v>
+      </c>
+      <c r="C664" t="n">
+        <v>4.01000022888184</v>
+      </c>
+      <c r="D664" t="n">
+        <v>4</v>
+      </c>
+      <c r="E664" t="n">
+        <v>4</v>
+      </c>
+      <c r="F664" t="n">
+        <v>4.05000019073486</v>
+      </c>
+      <c r="G664" t="s">
+        <v>256</v>
+      </c>
+      <c r="H664" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18422,13 +18422,13 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>45449.6496412037</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B664" t="n">
         <v>5584</v>
       </c>
       <c r="C664" t="n">
-        <v>4.01000022888184</v>
+        <v>4.05000019073486</v>
       </c>
       <c r="D664" t="n">
         <v>4</v>
@@ -18443,6 +18443,32 @@
         <v>256</v>
       </c>
       <c r="H664" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>45450.6437268518</v>
+      </c>
+      <c r="B665" t="n">
+        <v>5673</v>
+      </c>
+      <c r="C665" t="n">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="D665" t="n">
+        <v>4</v>
+      </c>
+      <c r="E665" t="n">
+        <v>4</v>
+      </c>
+      <c r="F665" t="n">
+        <v>4.03000020980835</v>
+      </c>
+      <c r="G665" t="s">
+        <v>160</v>
+      </c>
+      <c r="H665" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18448,7 +18448,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>45450.6437268518</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B665" t="n">
         <v>5673</v>
@@ -18469,6 +18469,32 @@
         <v>160</v>
       </c>
       <c r="H665" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>45453.6493055556</v>
+      </c>
+      <c r="B666" t="n">
+        <v>12775</v>
+      </c>
+      <c r="C666" t="n">
+        <v>4.05000019073486</v>
+      </c>
+      <c r="D666" t="n">
+        <v>4</v>
+      </c>
+      <c r="E666" t="n">
+        <v>4.05000019073486</v>
+      </c>
+      <c r="F666" t="n">
+        <v>4.05000019073486</v>
+      </c>
+      <c r="G666" t="s">
+        <v>256</v>
+      </c>
+      <c r="H666" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.46000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94000005722046</t>
   </si>
 </sst>
 </file>
@@ -18474,7 +18477,7 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>45453.6493055556</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B666" t="n">
         <v>12775</v>
@@ -18495,6 +18498,32 @@
         <v>256</v>
       </c>
       <c r="H666" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>45455.6420717593</v>
+      </c>
+      <c r="B667" t="n">
+        <v>4100</v>
+      </c>
+      <c r="C667" t="n">
+        <v>3.98000001907349</v>
+      </c>
+      <c r="D667" t="n">
+        <v>3.94000005722046</v>
+      </c>
+      <c r="E667" t="n">
+        <v>3.98000001907349</v>
+      </c>
+      <c r="F667" t="n">
+        <v>3.94000005722046</v>
+      </c>
+      <c r="G667" t="s">
+        <v>277</v>
+      </c>
+      <c r="H667" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.94000005722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96000003814697</t>
   </si>
 </sst>
 </file>
@@ -18503,27 +18506,79 @@
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>45455.6420717593</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B667" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C667" t="n">
+        <v>4.01000022888184</v>
+      </c>
+      <c r="D667" t="n">
+        <v>4.01000022888184</v>
+      </c>
+      <c r="E667" t="n">
+        <v>4.01000022888184</v>
+      </c>
+      <c r="F667" t="n">
+        <v>4.01000022888184</v>
+      </c>
+      <c r="G667" t="s">
+        <v>182</v>
+      </c>
+      <c r="H667" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B668" t="n">
         <v>4100</v>
       </c>
-      <c r="C667" t="n">
+      <c r="C668" t="n">
         <v>3.98000001907349</v>
       </c>
-      <c r="D667" t="n">
+      <c r="D668" t="n">
         <v>3.94000005722046</v>
       </c>
-      <c r="E667" t="n">
+      <c r="E668" t="n">
         <v>3.98000001907349</v>
       </c>
-      <c r="F667" t="n">
+      <c r="F668" t="n">
         <v>3.94000005722046</v>
       </c>
-      <c r="G667" t="s">
+      <c r="G668" t="s">
         <v>277</v>
       </c>
-      <c r="H667" t="s">
+      <c r="H668" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>45456.649537037</v>
+      </c>
+      <c r="B669" t="n">
+        <v>8149</v>
+      </c>
+      <c r="C669" t="n">
+        <v>3.99000000953674</v>
+      </c>
+      <c r="D669" t="n">
+        <v>3.88000011444092</v>
+      </c>
+      <c r="E669" t="n">
+        <v>3.99000000953674</v>
+      </c>
+      <c r="F669" t="n">
+        <v>3.96000003814697</v>
+      </c>
+      <c r="G669" t="s">
+        <v>278</v>
+      </c>
+      <c r="H669" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18558,7 +18558,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>45456.649537037</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B669" t="n">
         <v>8149</v>
@@ -18579,6 +18579,32 @@
         <v>278</v>
       </c>
       <c r="H669" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>45457.6494444444</v>
+      </c>
+      <c r="B670" t="n">
+        <v>34730</v>
+      </c>
+      <c r="C670" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="D670" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E670" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="F670" t="n">
+        <v>3.90000009536743</v>
+      </c>
+      <c r="G670" t="s">
+        <v>158</v>
+      </c>
+      <c r="H670" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18584,7 +18584,7 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>45457.6494444444</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B670" t="n">
         <v>34730</v>
@@ -18605,6 +18605,32 @@
         <v>158</v>
       </c>
       <c r="H670" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>45460.649537037</v>
+      </c>
+      <c r="B671" t="n">
+        <v>20571</v>
+      </c>
+      <c r="C671" t="n">
+        <v>3.94000005722046</v>
+      </c>
+      <c r="D671" t="n">
+        <v>3.8199999332428</v>
+      </c>
+      <c r="E671" t="n">
+        <v>3.82999992370605</v>
+      </c>
+      <c r="F671" t="n">
+        <v>3.86999988555908</v>
+      </c>
+      <c r="G671" t="s">
+        <v>159</v>
+      </c>
+      <c r="H671" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18610,7 +18610,7 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>45460.649537037</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B671" t="n">
         <v>20571</v>
@@ -18631,6 +18631,32 @@
         <v>159</v>
       </c>
       <c r="H671" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>45461.645775463</v>
+      </c>
+      <c r="B672" t="n">
+        <v>40852</v>
+      </c>
+      <c r="C672" t="n">
+        <v>3.95000004768372</v>
+      </c>
+      <c r="D672" t="n">
+        <v>3.84999990463257</v>
+      </c>
+      <c r="E672" t="n">
+        <v>3.84999990463257</v>
+      </c>
+      <c r="F672" t="n">
+        <v>3.9300000667572</v>
+      </c>
+      <c r="G672" t="s">
+        <v>177</v>
+      </c>
+      <c r="H672" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18636,7 +18636,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>45461.645775463</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B672" t="n">
         <v>40852</v>
@@ -18657,6 +18657,32 @@
         <v>177</v>
       </c>
       <c r="H672" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>45462.6432523148</v>
+      </c>
+      <c r="B673" t="n">
+        <v>209867</v>
+      </c>
+      <c r="C673" t="n">
+        <v>4.01999998092651</v>
+      </c>
+      <c r="D673" t="n">
+        <v>3.91000008583069</v>
+      </c>
+      <c r="E673" t="n">
+        <v>3.95000004768372</v>
+      </c>
+      <c r="F673" t="n">
+        <v>4.01000022888184</v>
+      </c>
+      <c r="G673" t="s">
+        <v>182</v>
+      </c>
+      <c r="H673" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18662,7 +18662,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>45462.6432523148</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B673" t="n">
         <v>209867</v>
@@ -18683,6 +18683,32 @@
         <v>182</v>
       </c>
       <c r="H673" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>45463.6494097222</v>
+      </c>
+      <c r="B674" t="n">
+        <v>20320</v>
+      </c>
+      <c r="C674" t="n">
+        <v>4.07999992370605</v>
+      </c>
+      <c r="D674" t="n">
+        <v>3.94000005722046</v>
+      </c>
+      <c r="E674" t="n">
+        <v>4.01999998092651</v>
+      </c>
+      <c r="F674" t="n">
+        <v>3.91000008583069</v>
+      </c>
+      <c r="G674" t="s">
+        <v>187</v>
+      </c>
+      <c r="H674" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18688,7 +18688,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>45463.6494097222</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B674" t="n">
         <v>20320</v>
@@ -18697,7 +18697,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="D674" t="n">
-        <v>3.94000005722046</v>
+        <v>3.91000008583069</v>
       </c>
       <c r="E674" t="n">
         <v>4.01999998092651</v>
@@ -18709,6 +18709,32 @@
         <v>187</v>
       </c>
       <c r="H674" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>45464.6502199074</v>
+      </c>
+      <c r="B675" t="n">
+        <v>192739</v>
+      </c>
+      <c r="C675" t="n">
+        <v>3.91000008583069</v>
+      </c>
+      <c r="D675" t="n">
+        <v>3.07999992370605</v>
+      </c>
+      <c r="E675" t="n">
+        <v>3.91000008583069</v>
+      </c>
+      <c r="F675" t="n">
+        <v>3.35999989509583</v>
+      </c>
+      <c r="G675" t="s">
+        <v>197</v>
+      </c>
+      <c r="H675" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -849,6 +849,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.96000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36999988555908</t>
   </si>
 </sst>
 </file>
@@ -18714,7 +18717,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>45464.6502199074</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B675" t="n">
         <v>192739</v>
@@ -18735,6 +18738,32 @@
         <v>197</v>
       </c>
       <c r="H675" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>45467.6493402778</v>
+      </c>
+      <c r="B676" t="n">
+        <v>118348</v>
+      </c>
+      <c r="C676" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="D676" t="n">
+        <v>3.22000002861023</v>
+      </c>
+      <c r="E676" t="n">
+        <v>3.91000008583069</v>
+      </c>
+      <c r="F676" t="n">
+        <v>3.36999988555908</v>
+      </c>
+      <c r="G676" t="s">
+        <v>279</v>
+      </c>
+      <c r="H676" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18743,7 +18743,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>45467.6493402778</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B676" t="n">
         <v>118348</v>
@@ -18755,7 +18755,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="E676" t="n">
-        <v>3.91000008583069</v>
+        <v>3.38000011444092</v>
       </c>
       <c r="F676" t="n">
         <v>3.36999988555908</v>
@@ -18764,6 +18764,32 @@
         <v>279</v>
       </c>
       <c r="H676" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>45468.649375</v>
+      </c>
+      <c r="B677" t="n">
+        <v>27166</v>
+      </c>
+      <c r="C677" t="n">
+        <v>3.4300000667572</v>
+      </c>
+      <c r="D677" t="n">
+        <v>3.23000001907349</v>
+      </c>
+      <c r="E677" t="n">
+        <v>3.36999988555908</v>
+      </c>
+      <c r="F677" t="n">
+        <v>3.36999988555908</v>
+      </c>
+      <c r="G677" t="s">
+        <v>279</v>
+      </c>
+      <c r="H677" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -852,6 +852,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.36999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44000005722046</t>
   </si>
 </sst>
 </file>
@@ -18769,7 +18772,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>45468.649375</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B677" t="n">
         <v>27166</v>
@@ -18790,6 +18793,32 @@
         <v>279</v>
       </c>
       <c r="H677" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>45469.6494328704</v>
+      </c>
+      <c r="B678" t="n">
+        <v>6508</v>
+      </c>
+      <c r="C678" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="D678" t="n">
+        <v>3.3199999332428</v>
+      </c>
+      <c r="E678" t="n">
+        <v>3.42000007629395</v>
+      </c>
+      <c r="F678" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="G678" t="s">
+        <v>280</v>
+      </c>
+      <c r="H678" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.44000005722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5699999332428</t>
   </si>
 </sst>
 </file>
@@ -18798,7 +18801,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>45469.6494328704</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B678" t="n">
         <v>6508</v>
@@ -18819,6 +18822,32 @@
         <v>280</v>
       </c>
       <c r="H678" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>45470.632337963</v>
+      </c>
+      <c r="B679" t="n">
+        <v>14279</v>
+      </c>
+      <c r="C679" t="n">
+        <v>3.59999990463257</v>
+      </c>
+      <c r="D679" t="n">
+        <v>3.38000011444092</v>
+      </c>
+      <c r="E679" t="n">
+        <v>3.42000007629395</v>
+      </c>
+      <c r="F679" t="n">
+        <v>3.5699999332428</v>
+      </c>
+      <c r="G679" t="s">
+        <v>281</v>
+      </c>
+      <c r="H679" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18827,7 +18827,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>45470.632337963</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B679" t="n">
         <v>14279</v>
@@ -18848,6 +18848,32 @@
         <v>281</v>
       </c>
       <c r="H679" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>45471.6495949074</v>
+      </c>
+      <c r="B680" t="n">
+        <v>15911</v>
+      </c>
+      <c r="C680" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="D680" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="E680" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="F680" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G680" t="s">
+        <v>149</v>
+      </c>
+      <c r="H680" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -858,6 +858,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.5699999332428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55999994277954</t>
   </si>
 </sst>
 </file>
@@ -18853,7 +18856,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>45471.6495949074</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B680" t="n">
         <v>15911</v>
@@ -18874,6 +18877,32 @@
         <v>149</v>
       </c>
       <c r="H680" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>45474.6440972222</v>
+      </c>
+      <c r="B681" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C681" t="n">
+        <v>3.5699999332428</v>
+      </c>
+      <c r="D681" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="E681" t="n">
+        <v>3.5699999332428</v>
+      </c>
+      <c r="F681" t="n">
+        <v>3.55999994277954</v>
+      </c>
+      <c r="G681" t="s">
+        <v>282</v>
+      </c>
+      <c r="H681" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18882,7 +18882,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>45474.6440972222</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B681" t="n">
         <v>3262</v>
@@ -18903,6 +18903,32 @@
         <v>282</v>
       </c>
       <c r="H681" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>45475.6495138889</v>
+      </c>
+      <c r="B682" t="n">
+        <v>4351</v>
+      </c>
+      <c r="C682" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="D682" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E682" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F682" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="G682" t="s">
+        <v>147</v>
+      </c>
+      <c r="H682" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18908,7 +18908,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>45475.6495138889</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B682" t="n">
         <v>4351</v>
@@ -18929,6 +18929,58 @@
         <v>147</v>
       </c>
       <c r="H682" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>45476.2916666667</v>
+      </c>
+      <c r="B683" t="n">
+        <v>7012</v>
+      </c>
+      <c r="C683" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="D683" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="E683" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="F683" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="G683" t="s">
+        <v>147</v>
+      </c>
+      <c r="H683" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>45477.6495833333</v>
+      </c>
+      <c r="B684" t="n">
+        <v>2203</v>
+      </c>
+      <c r="C684" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="D684" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="E684" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="F684" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G684" t="s">
+        <v>189</v>
+      </c>
+      <c r="H684" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18960,13 +18960,13 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>45477.6495833333</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B684" t="n">
         <v>2203</v>
       </c>
       <c r="C684" t="n">
-        <v>3.57999992370605</v>
+        <v>3.75</v>
       </c>
       <c r="D684" t="n">
         <v>3.52999997138977</v>
@@ -18981,6 +18981,32 @@
         <v>189</v>
       </c>
       <c r="H684" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>45478.6436805556</v>
+      </c>
+      <c r="B685" t="n">
+        <v>14667</v>
+      </c>
+      <c r="C685" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D685" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="E685" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="F685" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="G685" t="s">
+        <v>142</v>
+      </c>
+      <c r="H685" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -18986,7 +18986,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>45478.6436805556</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B685" t="n">
         <v>14667</v>
@@ -18998,7 +18998,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="E685" t="n">
-        <v>3.52999997138977</v>
+        <v>3.67000007629395</v>
       </c>
       <c r="F685" t="n">
         <v>3.63000011444092</v>
@@ -19007,6 +19007,32 @@
         <v>142</v>
       </c>
       <c r="H685" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>45481.6362615741</v>
+      </c>
+      <c r="B686" t="n">
+        <v>4355</v>
+      </c>
+      <c r="C686" t="n">
+        <v>3.69000005722046</v>
+      </c>
+      <c r="D686" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="E686" t="n">
+        <v>3.69000005722046</v>
+      </c>
+      <c r="F686" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="G686" t="s">
+        <v>191</v>
+      </c>
+      <c r="H686" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19012,7 +19012,7 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>45481.6362615741</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B686" t="n">
         <v>4355</v>
@@ -19033,6 +19033,32 @@
         <v>191</v>
       </c>
       <c r="H686" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>45482.5385648148</v>
+      </c>
+      <c r="B687" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C687" t="n">
+        <v>3.75999999046326</v>
+      </c>
+      <c r="D687" t="n">
+        <v>3.58999991416931</v>
+      </c>
+      <c r="E687" t="n">
+        <v>3.58999991416931</v>
+      </c>
+      <c r="F687" t="n">
+        <v>3.72000002861023</v>
+      </c>
+      <c r="G687" t="s">
+        <v>143</v>
+      </c>
+      <c r="H687" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -861,6 +861,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.55999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61999988555908</t>
   </si>
 </sst>
 </file>
@@ -19038,7 +19041,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>45482.5385648148</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B687" t="n">
         <v>2910</v>
@@ -19059,6 +19062,32 @@
         <v>143</v>
       </c>
       <c r="H687" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>45483.6494097222</v>
+      </c>
+      <c r="B688" t="n">
+        <v>5333</v>
+      </c>
+      <c r="C688" t="n">
+        <v>3.69000005722046</v>
+      </c>
+      <c r="D688" t="n">
+        <v>3.64000010490417</v>
+      </c>
+      <c r="E688" t="n">
+        <v>3.64000010490417</v>
+      </c>
+      <c r="F688" t="n">
+        <v>3.61999988555908</v>
+      </c>
+      <c r="G688" t="s">
+        <v>283</v>
+      </c>
+      <c r="H688" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19067,7 +19067,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>45483.6494097222</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B688" t="n">
         <v>5333</v>
@@ -19076,7 +19076,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="D688" t="n">
-        <v>3.64000010490417</v>
+        <v>3.61999988555908</v>
       </c>
       <c r="E688" t="n">
         <v>3.64000010490417</v>
@@ -19088,6 +19088,32 @@
         <v>283</v>
       </c>
       <c r="H688" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>45484.6495833333</v>
+      </c>
+      <c r="B689" t="n">
+        <v>47787</v>
+      </c>
+      <c r="C689" t="n">
+        <v>3.65000009536743</v>
+      </c>
+      <c r="D689" t="n">
+        <v>3.28999996185303</v>
+      </c>
+      <c r="E689" t="n">
+        <v>3.65000009536743</v>
+      </c>
+      <c r="F689" t="n">
+        <v>3.3199999332428</v>
+      </c>
+      <c r="G689" t="s">
+        <v>213</v>
+      </c>
+      <c r="H689" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19093,7 +19093,7 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>45484.6495833333</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B689" t="n">
         <v>47787</v>
@@ -19114,6 +19114,32 @@
         <v>213</v>
       </c>
       <c r="H689" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>45485.6494791667</v>
+      </c>
+      <c r="B690" t="n">
+        <v>41408</v>
+      </c>
+      <c r="C690" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="D690" t="n">
+        <v>3.16000008583069</v>
+      </c>
+      <c r="E690" t="n">
+        <v>3.16000008583069</v>
+      </c>
+      <c r="F690" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G690" t="s">
+        <v>149</v>
+      </c>
+      <c r="H690" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19119,13 +19119,13 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>45485.6494791667</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B690" t="n">
         <v>41408</v>
       </c>
       <c r="C690" t="n">
-        <v>3.47000002861023</v>
+        <v>3.5</v>
       </c>
       <c r="D690" t="n">
         <v>3.16000008583069</v>
@@ -19140,6 +19140,32 @@
         <v>149</v>
       </c>
       <c r="H690" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>45488.6430902778</v>
+      </c>
+      <c r="B691" t="n">
+        <v>8321</v>
+      </c>
+      <c r="C691" t="n">
+        <v>3.60999989509583</v>
+      </c>
+      <c r="D691" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E691" t="n">
+        <v>3.5699999332428</v>
+      </c>
+      <c r="F691" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="G691" t="s">
+        <v>147</v>
+      </c>
+      <c r="H691" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19145,7 +19145,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>45488.6430902778</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B691" t="n">
         <v>8321</v>
@@ -19166,6 +19166,32 @@
         <v>147</v>
       </c>
       <c r="H691" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>45489.6448726852</v>
+      </c>
+      <c r="B692" t="n">
+        <v>8885</v>
+      </c>
+      <c r="C692" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="D692" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="E692" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F692" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G692" t="s">
+        <v>149</v>
+      </c>
+      <c r="H692" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19171,7 +19171,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>45489.6448726852</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B692" t="n">
         <v>8885</v>
@@ -19192,6 +19192,32 @@
         <v>149</v>
       </c>
       <c r="H692" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>45490.6424768518</v>
+      </c>
+      <c r="B693" t="n">
+        <v>5480</v>
+      </c>
+      <c r="C693" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="D693" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="E693" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="F693" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="G693" t="s">
+        <v>151</v>
+      </c>
+      <c r="H693" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.61999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54999995231628</t>
   </si>
 </sst>
 </file>
@@ -19197,7 +19200,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>45490.6424768518</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B693" t="n">
         <v>5480</v>
@@ -19218,6 +19221,32 @@
         <v>151</v>
       </c>
       <c r="H693" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>45491.6209490741</v>
+      </c>
+      <c r="B694" t="n">
+        <v>8805</v>
+      </c>
+      <c r="C694" t="n">
+        <v>3.54999995231628</v>
+      </c>
+      <c r="D694" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="E694" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="F694" t="n">
+        <v>3.54999995231628</v>
+      </c>
+      <c r="G694" t="s">
+        <v>284</v>
+      </c>
+      <c r="H694" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -867,6 +867,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.54999995231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53999996185303</t>
   </si>
 </sst>
 </file>
@@ -19226,10 +19229,10 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>45491.6209490741</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B694" t="n">
-        <v>8805</v>
+        <v>10000</v>
       </c>
       <c r="C694" t="n">
         <v>3.54999995231628</v>
@@ -19247,6 +19250,32 @@
         <v>284</v>
       </c>
       <c r="H694" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>45492.4717592593</v>
+      </c>
+      <c r="B695" t="n">
+        <v>981</v>
+      </c>
+      <c r="C695" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="D695" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="E695" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="F695" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="G695" t="s">
+        <v>285</v>
+      </c>
+      <c r="H695" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19255,7 +19255,7 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>45492.4717592593</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B695" t="n">
         <v>981</v>
@@ -19276,6 +19276,32 @@
         <v>285</v>
       </c>
       <c r="H695" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>45495.6495138889</v>
+      </c>
+      <c r="B696" t="n">
+        <v>20138</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3.59999990463257</v>
+      </c>
+      <c r="D696" t="n">
+        <v>3.36999988555908</v>
+      </c>
+      <c r="E696" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="F696" t="n">
+        <v>3.41000008583069</v>
+      </c>
+      <c r="G696" t="s">
+        <v>204</v>
+      </c>
+      <c r="H696" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -870,6 +870,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.53999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48000001907349</t>
   </si>
 </sst>
 </file>
@@ -19281,7 +19284,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>45495.6495138889</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B696" t="n">
         <v>20138</v>
@@ -19302,6 +19305,32 @@
         <v>204</v>
       </c>
       <c r="H696" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>45496.3452777778</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C697" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="D697" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="E697" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="F697" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="G697" t="s">
+        <v>286</v>
+      </c>
+      <c r="H697" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19310,7 +19310,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>45496.3452777778</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B697" t="n">
         <v>1544</v>
@@ -19331,6 +19331,32 @@
         <v>286</v>
       </c>
       <c r="H697" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>45497.6495949074</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C698" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="D698" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="E698" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="F698" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G698" t="s">
+        <v>149</v>
+      </c>
+      <c r="H698" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19336,13 +19336,13 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>45497.6495949074</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B698" t="n">
         <v>1003</v>
       </c>
       <c r="C698" t="n">
-        <v>3.49000000953674</v>
+        <v>3.5</v>
       </c>
       <c r="D698" t="n">
         <v>3.48000001907349</v>
@@ -19357,6 +19357,32 @@
         <v>149</v>
       </c>
       <c r="H698" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>45498.649375</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C699" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="D699" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E699" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="F699" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="G699" t="s">
+        <v>280</v>
+      </c>
+      <c r="H699" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19362,7 +19362,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>45498.649375</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B699" t="n">
         <v>1130</v>
@@ -19383,6 +19383,32 @@
         <v>280</v>
       </c>
       <c r="H699" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>45499.6494097222</v>
+      </c>
+      <c r="B700" t="n">
+        <v>42834</v>
+      </c>
+      <c r="C700" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="D700" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="E700" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F700" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G700" t="s">
+        <v>149</v>
+      </c>
+      <c r="H700" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19388,7 +19388,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>45499.6494097222</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B700" t="n">
         <v>42834</v>
@@ -19409,6 +19409,32 @@
         <v>149</v>
       </c>
       <c r="H700" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>45502.6495717593</v>
+      </c>
+      <c r="B701" t="n">
+        <v>31504</v>
+      </c>
+      <c r="C701" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="D701" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="E701" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F701" t="n">
+        <v>3.55999994277954</v>
+      </c>
+      <c r="G701" t="s">
+        <v>282</v>
+      </c>
+      <c r="H701" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19414,13 +19414,13 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>45502.6495717593</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B701" t="n">
         <v>31504</v>
       </c>
       <c r="C701" t="n">
-        <v>3.50999999046326</v>
+        <v>3.55999994277954</v>
       </c>
       <c r="D701" t="n">
         <v>3.50999999046326</v>
@@ -19435,6 +19435,32 @@
         <v>282</v>
       </c>
       <c r="H701" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>45503.6384027778</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1396</v>
+      </c>
+      <c r="C702" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="D702" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E702" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F702" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G702" t="s">
+        <v>149</v>
+      </c>
+      <c r="H702" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19440,7 +19440,7 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>45503.6384027778</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B702" t="n">
         <v>1396</v>
@@ -19461,6 +19461,32 @@
         <v>149</v>
       </c>
       <c r="H702" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>45504.6400810185</v>
+      </c>
+      <c r="B703" t="n">
+        <v>19950</v>
+      </c>
+      <c r="C703" t="n">
+        <v>3.5699999332428</v>
+      </c>
+      <c r="D703" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E703" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F703" t="n">
+        <v>3.5699999332428</v>
+      </c>
+      <c r="G703" t="s">
+        <v>281</v>
+      </c>
+      <c r="H703" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19466,7 +19466,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>45504.6400810185</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B703" t="n">
         <v>19950</v>
@@ -19487,6 +19487,32 @@
         <v>281</v>
       </c>
       <c r="H703" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>45505.6495601852</v>
+      </c>
+      <c r="B704" t="n">
+        <v>13763</v>
+      </c>
+      <c r="C704" t="n">
+        <v>3.64000010490417</v>
+      </c>
+      <c r="D704" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E704" t="n">
+        <v>3.64000010490417</v>
+      </c>
+      <c r="F704" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G704" t="s">
+        <v>149</v>
+      </c>
+      <c r="H704" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.48000001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58999991416931</t>
   </si>
 </sst>
 </file>
@@ -19492,7 +19495,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>45505.6495601852</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B704" t="n">
         <v>13763</v>
@@ -19513,6 +19516,32 @@
         <v>149</v>
       </c>
       <c r="H704" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>45506.6495717593</v>
+      </c>
+      <c r="B705" t="n">
+        <v>24979</v>
+      </c>
+      <c r="C705" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D705" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E705" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F705" t="n">
+        <v>3.58999991416931</v>
+      </c>
+      <c r="G705" t="s">
+        <v>287</v>
+      </c>
+      <c r="H705" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19521,7 +19521,7 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>45506.6495717593</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B705" t="n">
         <v>24979</v>
@@ -19542,6 +19542,32 @@
         <v>287</v>
       </c>
       <c r="H705" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>45509.5868171296</v>
+      </c>
+      <c r="B706" t="n">
+        <v>65830</v>
+      </c>
+      <c r="C706" t="n">
+        <v>3.36999988555908</v>
+      </c>
+      <c r="D706" t="n">
+        <v>3.22000002861023</v>
+      </c>
+      <c r="E706" t="n">
+        <v>3.26999998092651</v>
+      </c>
+      <c r="F706" t="n">
+        <v>3.3199999332428</v>
+      </c>
+      <c r="G706" t="s">
+        <v>213</v>
+      </c>
+      <c r="H706" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.58999991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26999998092651</t>
   </si>
 </sst>
 </file>
@@ -19547,10 +19550,10 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>45509.5868171296</v>
+        <v>45509.6494560185</v>
       </c>
       <c r="B706" t="n">
-        <v>65830</v>
+        <v>75066</v>
       </c>
       <c r="C706" t="n">
         <v>3.36999988555908</v>
@@ -19562,10 +19565,10 @@
         <v>3.26999998092651</v>
       </c>
       <c r="F706" t="n">
-        <v>3.3199999332428</v>
+        <v>3.26999998092651</v>
       </c>
       <c r="G706" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19550,7 +19550,7 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>45509.6494560185</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B706" t="n">
         <v>75066</v>
@@ -19571,6 +19571,58 @@
         <v>288</v>
       </c>
       <c r="H706" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B707" t="n">
+        <v>15185</v>
+      </c>
+      <c r="C707" t="n">
+        <v>3.41000008583069</v>
+      </c>
+      <c r="D707" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E707" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F707" t="n">
+        <v>3.32999992370605</v>
+      </c>
+      <c r="G707" t="s">
+        <v>205</v>
+      </c>
+      <c r="H707" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>45511.649375</v>
+      </c>
+      <c r="B708" t="n">
+        <v>7176</v>
+      </c>
+      <c r="C708" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="D708" t="n">
+        <v>3.32999992370605</v>
+      </c>
+      <c r="E708" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="F708" t="n">
+        <v>3.32999992370605</v>
+      </c>
+      <c r="G708" t="s">
+        <v>205</v>
+      </c>
+      <c r="H708" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19602,7 +19602,7 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>45511.649375</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B708" t="n">
         <v>7176</v>
@@ -19623,6 +19623,32 @@
         <v>205</v>
       </c>
       <c r="H708" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>45512.3604513889</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1541</v>
+      </c>
+      <c r="C709" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="D709" t="n">
+        <v>3.32999992370605</v>
+      </c>
+      <c r="E709" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="F709" t="n">
+        <v>3.32999992370605</v>
+      </c>
+      <c r="G709" t="s">
+        <v>205</v>
+      </c>
+      <c r="H709" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.26999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34999990463257</t>
   </si>
 </sst>
 </file>
@@ -19628,7 +19631,7 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>45512.3604513889</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B709" t="n">
         <v>1541</v>
@@ -19649,6 +19652,32 @@
         <v>205</v>
       </c>
       <c r="H709" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>45513.6341550926</v>
+      </c>
+      <c r="B710" t="n">
+        <v>23190</v>
+      </c>
+      <c r="C710" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="D710" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="E710" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="F710" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="G710" t="s">
+        <v>289</v>
+      </c>
+      <c r="H710" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.34999990463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33999991416931</t>
   </si>
 </sst>
 </file>
@@ -19657,7 +19660,7 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>45513.6341550926</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B710" t="n">
         <v>23190</v>
@@ -19678,6 +19681,32 @@
         <v>289</v>
       </c>
       <c r="H710" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>45516.6126041667</v>
+      </c>
+      <c r="B711" t="n">
+        <v>7400</v>
+      </c>
+      <c r="C711" t="n">
+        <v>3.33999991416931</v>
+      </c>
+      <c r="D711" t="n">
+        <v>3.3199999332428</v>
+      </c>
+      <c r="E711" t="n">
+        <v>3.3199999332428</v>
+      </c>
+      <c r="F711" t="n">
+        <v>3.33999991416931</v>
+      </c>
+      <c r="G711" t="s">
+        <v>290</v>
+      </c>
+      <c r="H711" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19686,7 +19686,7 @@
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>45516.6126041667</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B711" t="n">
         <v>7400</v>
@@ -19707,6 +19707,32 @@
         <v>290</v>
       </c>
       <c r="H711" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>45517.6494560185</v>
+      </c>
+      <c r="B712" t="n">
+        <v>7420</v>
+      </c>
+      <c r="C712" t="n">
+        <v>3.58999991416931</v>
+      </c>
+      <c r="D712" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E712" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="F712" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="G712" t="s">
+        <v>286</v>
+      </c>
+      <c r="H712" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19712,7 +19712,7 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>45517.6494560185</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B712" t="n">
         <v>7420</v>
@@ -19733,6 +19733,32 @@
         <v>286</v>
       </c>
       <c r="H712" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>45518.6441898148</v>
+      </c>
+      <c r="B713" t="n">
+        <v>3807</v>
+      </c>
+      <c r="C713" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="D713" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="E713" t="n">
+        <v>3.52999997138977</v>
+      </c>
+      <c r="F713" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="G713" t="s">
+        <v>285</v>
+      </c>
+      <c r="H713" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19738,7 +19738,7 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>45518.6441898148</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B713" t="n">
         <v>3807</v>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19762,6 +19762,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>45520.5797222222</v>
+      </c>
+      <c r="B714" t="n">
+        <v>14679</v>
+      </c>
+      <c r="C714" t="n">
+        <v>3.59999990463257</v>
+      </c>
+      <c r="D714" t="n">
+        <v>3.54999995231628</v>
+      </c>
+      <c r="E714" t="n">
+        <v>3.59999990463257</v>
+      </c>
+      <c r="F714" t="n">
+        <v>3.5699999332428</v>
+      </c>
+      <c r="G714" t="s">
+        <v>281</v>
+      </c>
+      <c r="H714" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19764,7 +19764,7 @@
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>45520.5797222222</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B714" t="n">
         <v>14679</v>
@@ -19785,6 +19785,32 @@
         <v>281</v>
       </c>
       <c r="H714" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>45523.5443171296</v>
+      </c>
+      <c r="B715" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C715" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="D715" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="E715" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="F715" t="n">
+        <v>3.63000011444092</v>
+      </c>
+      <c r="G715" t="s">
+        <v>142</v>
+      </c>
+      <c r="H715" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19790,7 +19790,7 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>45523.5443171296</v>
+        <v>45523.2916666667</v>
       </c>
       <c r="B715" t="n">
         <v>5000</v>
@@ -19811,6 +19811,32 @@
         <v>142</v>
       </c>
       <c r="H715" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>45524.6493865741</v>
+      </c>
+      <c r="B716" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C716" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="D716" t="n">
+        <v>3.54999995231628</v>
+      </c>
+      <c r="E716" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="F716" t="n">
+        <v>3.54999995231628</v>
+      </c>
+      <c r="G716" t="s">
+        <v>284</v>
+      </c>
+      <c r="H716" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19816,7 +19816,7 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>45524.6493865741</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B716" t="n">
         <v>1709</v>
@@ -19837,6 +19837,32 @@
         <v>284</v>
       </c>
       <c r="H716" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>45525.642962963</v>
+      </c>
+      <c r="B717" t="n">
+        <v>4578</v>
+      </c>
+      <c r="C717" t="n">
+        <v>3.55999994277954</v>
+      </c>
+      <c r="D717" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="E717" t="n">
+        <v>3.54999995231628</v>
+      </c>
+      <c r="F717" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="G717" t="s">
+        <v>285</v>
+      </c>
+      <c r="H717" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19842,7 +19842,7 @@
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>45525.642962963</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B717" t="n">
         <v>4578</v>
@@ -19863,6 +19863,32 @@
         <v>285</v>
       </c>
       <c r="H717" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>45526.5098148148</v>
+      </c>
+      <c r="B718" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C718" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="D718" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="E718" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="F718" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="G718" t="s">
+        <v>218</v>
+      </c>
+      <c r="H718" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19868,7 +19868,7 @@
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
-        <v>45526.5098148148</v>
+        <v>45526.2916666667</v>
       </c>
       <c r="B718" t="n">
         <v>1200</v>
@@ -19889,6 +19889,32 @@
         <v>218</v>
       </c>
       <c r="H718" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>45527.6493287037</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4308</v>
+      </c>
+      <c r="C719" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="D719" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="E719" t="n">
+        <v>3.57999992370605</v>
+      </c>
+      <c r="F719" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="G719" t="s">
+        <v>218</v>
+      </c>
+      <c r="H719" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19894,7 +19894,7 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
-        <v>45527.6493287037</v>
+        <v>45527.2916666667</v>
       </c>
       <c r="B719" t="n">
         <v>4308</v>
@@ -19915,6 +19915,32 @@
         <v>218</v>
       </c>
       <c r="H719" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>45530.6450694444</v>
+      </c>
+      <c r="B720" t="n">
+        <v>2351</v>
+      </c>
+      <c r="C720" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="D720" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="E720" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="F720" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="G720" t="s">
+        <v>193</v>
+      </c>
+      <c r="H720" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19920,7 +19920,7 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
-        <v>45530.6450694444</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B720" t="n">
         <v>2351</v>
@@ -19941,6 +19941,32 @@
         <v>193</v>
       </c>
       <c r="H720" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>45531.649537037</v>
+      </c>
+      <c r="B721" t="n">
+        <v>5488</v>
+      </c>
+      <c r="C721" t="n">
+        <v>3.59999990463257</v>
+      </c>
+      <c r="D721" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="E721" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="F721" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="G721" t="s">
+        <v>193</v>
+      </c>
+      <c r="H721" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19946,7 +19946,7 @@
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
-        <v>45531.649537037</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B721" t="n">
         <v>5488</v>
@@ -19967,6 +19967,32 @@
         <v>193</v>
       </c>
       <c r="H721" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>45532.6355902778</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C722" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="D722" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="E722" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="F722" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="G722" t="s">
+        <v>193</v>
+      </c>
+      <c r="H722" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -19972,7 +19972,7 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
-        <v>45532.6355902778</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B722" t="n">
         <v>1100</v>
@@ -19993,6 +19993,32 @@
         <v>193</v>
       </c>
       <c r="H722" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>45533.6350694444</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C723" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="D723" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="E723" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F723" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="G723" t="s">
+        <v>150</v>
+      </c>
+      <c r="H723" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -885,6 +885,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.33999991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45000004768372</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -930,7 +933,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19998,7 +20001,7 @@
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
-        <v>45533.6350694444</v>
+        <v>45533.2916666667</v>
       </c>
       <c r="B723" t="n">
         <v>1978</v>
@@ -20019,6 +20022,32 @@
         <v>150</v>
       </c>
       <c r="H723" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>45534.6333796296</v>
+      </c>
+      <c r="B724" t="n">
+        <v>4423</v>
+      </c>
+      <c r="C724" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="D724" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E724" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="F724" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="G724" t="s">
+        <v>291</v>
+      </c>
+      <c r="H724" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20027,7 +20027,7 @@
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
-        <v>45534.6333796296</v>
+        <v>45534.2916666667</v>
       </c>
       <c r="B724" t="n">
         <v>4423</v>
@@ -20048,6 +20048,32 @@
         <v>291</v>
       </c>
       <c r="H724" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>45537.6255671296</v>
+      </c>
+      <c r="B725" t="n">
+        <v>5350</v>
+      </c>
+      <c r="C725" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="D725" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="E725" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="F725" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="G725" t="s">
+        <v>218</v>
+      </c>
+      <c r="H725" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20053,7 +20053,7 @@
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
-        <v>45537.6255671296</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B725" t="n">
         <v>5350</v>
@@ -20074,6 +20074,32 @@
         <v>218</v>
       </c>
       <c r="H725" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>45538.6496064815</v>
+      </c>
+      <c r="B726" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C726" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="D726" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="E726" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="F726" t="n">
+        <v>3.49000000953674</v>
+      </c>
+      <c r="G726" t="s">
+        <v>151</v>
+      </c>
+      <c r="H726" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20079,7 +20079,7 @@
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
-        <v>45538.6496064815</v>
+        <v>45538.2916666667</v>
       </c>
       <c r="B726" t="n">
         <v>2800</v>
@@ -20100,6 +20100,32 @@
         <v>151</v>
       </c>
       <c r="H726" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>45539.3515393518</v>
+      </c>
+      <c r="B727" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C727" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="D727" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="E727" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F727" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="G727" t="s">
+        <v>150</v>
+      </c>
+      <c r="H727" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20105,7 +20105,7 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
-        <v>45539.3515393518</v>
+        <v>45539.2916666667</v>
       </c>
       <c r="B727" t="n">
         <v>2400</v>
@@ -20126,6 +20126,32 @@
         <v>150</v>
       </c>
       <c r="H727" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>45540.6443287037</v>
+      </c>
+      <c r="B728" t="n">
+        <v>2695</v>
+      </c>
+      <c r="C728" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D728" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="E728" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F728" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="G728" t="s">
+        <v>291</v>
+      </c>
+      <c r="H728" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20131,7 +20131,7 @@
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
-        <v>45540.6443287037</v>
+        <v>45540.2916666667</v>
       </c>
       <c r="B728" t="n">
         <v>2695</v>
@@ -20152,6 +20152,32 @@
         <v>291</v>
       </c>
       <c r="H728" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>45541.6197453704</v>
+      </c>
+      <c r="B729" t="n">
+        <v>3278</v>
+      </c>
+      <c r="C729" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="D729" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="E729" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="F729" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="G729" t="s">
+        <v>291</v>
+      </c>
+      <c r="H729" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.45000004768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4300000667572</t>
   </si>
 </sst>
 </file>
@@ -20157,7 +20160,7 @@
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
-        <v>45541.6197453704</v>
+        <v>45541.2916666667</v>
       </c>
       <c r="B729" t="n">
         <v>3278</v>
@@ -20178,6 +20181,32 @@
         <v>291</v>
       </c>
       <c r="H729" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>45544.6494560185</v>
+      </c>
+      <c r="B730" t="n">
+        <v>2555</v>
+      </c>
+      <c r="C730" t="n">
+        <v>3.4300000667572</v>
+      </c>
+      <c r="D730" t="n">
+        <v>3.42000007629395</v>
+      </c>
+      <c r="E730" t="n">
+        <v>3.4300000667572</v>
+      </c>
+      <c r="F730" t="n">
+        <v>3.4300000667572</v>
+      </c>
+      <c r="G730" t="s">
+        <v>292</v>
+      </c>
+      <c r="H730" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20186,7 +20186,7 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
-        <v>45544.6494560185</v>
+        <v>45544.2916666667</v>
       </c>
       <c r="B730" t="n">
         <v>2555</v>
@@ -20207,6 +20207,32 @@
         <v>292</v>
       </c>
       <c r="H730" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>45545.6382060185</v>
+      </c>
+      <c r="B731" t="n">
+        <v>2194</v>
+      </c>
+      <c r="C731" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="D731" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E731" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="F731" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="G731" t="s">
+        <v>280</v>
+      </c>
+      <c r="H731" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20212,7 +20212,7 @@
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
-        <v>45545.6382060185</v>
+        <v>45545.2916666667</v>
       </c>
       <c r="B731" t="n">
         <v>2194</v>
@@ -20233,6 +20233,32 @@
         <v>280</v>
       </c>
       <c r="H731" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>45546.6277314815</v>
+      </c>
+      <c r="B732" t="n">
+        <v>956</v>
+      </c>
+      <c r="C732" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="D732" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E732" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="F732" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="G732" t="s">
+        <v>280</v>
+      </c>
+      <c r="H732" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20238,7 +20238,7 @@
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
-        <v>45546.6277314815</v>
+        <v>45546.2916666667</v>
       </c>
       <c r="B732" t="n">
         <v>956</v>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20262,6 +20262,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>45547.2916666667</v>
+      </c>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="D733" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E733" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="F733" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="G733" t="s">
+        <v>280</v>
+      </c>
+      <c r="H733" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>45548.6404513889</v>
+      </c>
+      <c r="B734" t="n">
+        <v>2725</v>
+      </c>
+      <c r="C734" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="D734" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="E734" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="F734" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="G734" t="s">
+        <v>291</v>
+      </c>
+      <c r="H734" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.4300000667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40000009536743</t>
   </si>
 </sst>
 </file>
@@ -20290,7 +20293,7 @@
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
-        <v>45548.6404513889</v>
+        <v>45548.2916666667</v>
       </c>
       <c r="B734" t="n">
         <v>2725</v>
@@ -20311,6 +20314,32 @@
         <v>291</v>
       </c>
       <c r="H734" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>45551.6494212963</v>
+      </c>
+      <c r="B735" t="n">
+        <v>7752</v>
+      </c>
+      <c r="C735" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="D735" t="n">
+        <v>3.38000011444092</v>
+      </c>
+      <c r="E735" t="n">
+        <v>3.42000007629395</v>
+      </c>
+      <c r="F735" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="G735" t="s">
+        <v>293</v>
+      </c>
+      <c r="H735" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20319,7 +20319,7 @@
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
-        <v>45551.6494212963</v>
+        <v>45551.2916666667</v>
       </c>
       <c r="B735" t="n">
         <v>7752</v>
@@ -20340,6 +20340,32 @@
         <v>293</v>
       </c>
       <c r="H735" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>45552.5856481481</v>
+      </c>
+      <c r="B736" t="n">
+        <v>7459</v>
+      </c>
+      <c r="C736" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="D736" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="E736" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="F736" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="G736" t="s">
+        <v>199</v>
+      </c>
+      <c r="H736" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20345,7 +20345,7 @@
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
-        <v>45552.5856481481</v>
+        <v>45552.2916666667</v>
       </c>
       <c r="B736" t="n">
         <v>7459</v>
@@ -20366,6 +20366,32 @@
         <v>199</v>
       </c>
       <c r="H736" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>45553.649537037</v>
+      </c>
+      <c r="B737" t="n">
+        <v>5</v>
+      </c>
+      <c r="C737" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="D737" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="E737" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="F737" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="G737" t="s">
+        <v>150</v>
+      </c>
+      <c r="H737" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20371,19 +20371,19 @@
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
-        <v>45553.649537037</v>
+        <v>45553.2916666667</v>
       </c>
       <c r="B737" t="n">
         <v>5</v>
       </c>
       <c r="C737" t="n">
-        <v>3.40000009536743</v>
+        <v>3.46000003814697</v>
       </c>
       <c r="D737" t="n">
-        <v>3.39000010490417</v>
+        <v>3.46000003814697</v>
       </c>
       <c r="E737" t="n">
-        <v>3.39000010490417</v>
+        <v>3.46000003814697</v>
       </c>
       <c r="F737" t="n">
         <v>3.46000003814697</v>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20395,6 +20395,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>45554.2916666667</v>
+      </c>
+      <c r="B738" t="n">
+        <v>0</v>
+      </c>
+      <c r="C738" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="D738" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="E738" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="F738" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="G738" t="s">
+        <v>150</v>
+      </c>
+      <c r="H738" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>45555.6495949074</v>
+      </c>
+      <c r="B739" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C739" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="D739" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="E739" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="F739" t="n">
+        <v>3.41000008583069</v>
+      </c>
+      <c r="G739" t="s">
+        <v>204</v>
+      </c>
+      <c r="H739" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20423,13 +20423,13 @@
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
-        <v>45555.6495949074</v>
+        <v>45555.2916666667</v>
       </c>
       <c r="B739" t="n">
         <v>6160</v>
       </c>
       <c r="C739" t="n">
-        <v>3.40000009536743</v>
+        <v>3.41000008583069</v>
       </c>
       <c r="D739" t="n">
         <v>3.34999990463257</v>
@@ -20444,6 +20444,32 @@
         <v>204</v>
       </c>
       <c r="H739" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>45558.6493055556</v>
+      </c>
+      <c r="B740" t="n">
+        <v>3194</v>
+      </c>
+      <c r="C740" t="n">
+        <v>3.40000009536743</v>
+      </c>
+      <c r="D740" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="E740" t="n">
+        <v>3.38000011444092</v>
+      </c>
+      <c r="F740" t="n">
+        <v>3.36999988555908</v>
+      </c>
+      <c r="G740" t="s">
+        <v>279</v>
+      </c>
+      <c r="H740" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20449,7 +20449,7 @@
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
-        <v>45558.6493055556</v>
+        <v>45558.2916666667</v>
       </c>
       <c r="B740" t="n">
         <v>3194</v>
@@ -20470,6 +20470,32 @@
         <v>279</v>
       </c>
       <c r="H740" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>45559.5212731481</v>
+      </c>
+      <c r="B741" t="n">
+        <v>10295</v>
+      </c>
+      <c r="C741" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="D741" t="n">
+        <v>3.28999996185303</v>
+      </c>
+      <c r="E741" t="n">
+        <v>3.39000010490417</v>
+      </c>
+      <c r="F741" t="n">
+        <v>3.35999989509583</v>
+      </c>
+      <c r="G741" t="s">
+        <v>197</v>
+      </c>
+      <c r="H741" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20475,7 +20475,7 @@
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
-        <v>45559.5212731481</v>
+        <v>45559.2916666667</v>
       </c>
       <c r="B741" t="n">
         <v>10295</v>
@@ -20496,6 +20496,32 @@
         <v>197</v>
       </c>
       <c r="H741" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>45560.649375</v>
+      </c>
+      <c r="B742" t="n">
+        <v>6599</v>
+      </c>
+      <c r="C742" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D742" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="E742" t="n">
+        <v>3.34999990463257</v>
+      </c>
+      <c r="F742" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G742" t="s">
+        <v>149</v>
+      </c>
+      <c r="H742" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20501,7 +20501,7 @@
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
-        <v>45560.649375</v>
+        <v>45560.2916666667</v>
       </c>
       <c r="B742" t="n">
         <v>6599</v>
@@ -20522,6 +20522,32 @@
         <v>149</v>
       </c>
       <c r="H742" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>45561.6035185185</v>
+      </c>
+      <c r="B743" t="n">
+        <v>3314</v>
+      </c>
+      <c r="C743" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="D743" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="E743" t="n">
+        <v>3.50999999046326</v>
+      </c>
+      <c r="F743" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="G743" t="s">
+        <v>218</v>
+      </c>
+      <c r="H743" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20527,7 +20527,7 @@
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
-        <v>45561.6035185185</v>
+        <v>45561.2916666667</v>
       </c>
       <c r="B743" t="n">
         <v>3314</v>
@@ -20548,6 +20548,32 @@
         <v>218</v>
       </c>
       <c r="H743" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>45562.6368981482</v>
+      </c>
+      <c r="B744" t="n">
+        <v>24874</v>
+      </c>
+      <c r="C744" t="n">
+        <v>3.60999989509583</v>
+      </c>
+      <c r="D744" t="n">
+        <v>3.47000002861023</v>
+      </c>
+      <c r="E744" t="n">
+        <v>3.58999991416931</v>
+      </c>
+      <c r="F744" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="G744" t="s">
+        <v>286</v>
+      </c>
+      <c r="H744" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -894,6 +894,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.40000009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42000007629395</t>
   </si>
 </sst>
 </file>
@@ -20553,7 +20556,7 @@
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
-        <v>45562.6368981482</v>
+        <v>45562.2916666667</v>
       </c>
       <c r="B744" t="n">
         <v>24874</v>
@@ -20574,6 +20577,32 @@
         <v>286</v>
       </c>
       <c r="H744" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>45565.649525463</v>
+      </c>
+      <c r="B745" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C745" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="D745" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E745" t="n">
+        <v>3.53999996185303</v>
+      </c>
+      <c r="F745" t="n">
+        <v>3.42000007629395</v>
+      </c>
+      <c r="G745" t="s">
+        <v>294</v>
+      </c>
+      <c r="H745" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20582,7 +20582,7 @@
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
-        <v>45565.649525463</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B745" t="n">
         <v>1362</v>
@@ -20591,7 +20591,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="D745" t="n">
-        <v>3.5</v>
+        <v>3.42000007629395</v>
       </c>
       <c r="E745" t="n">
         <v>3.53999996185303</v>
@@ -20603,6 +20603,32 @@
         <v>294</v>
       </c>
       <c r="H745" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>45566.5904976852</v>
+      </c>
+      <c r="B746" t="n">
+        <v>10779</v>
+      </c>
+      <c r="C746" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D746" t="n">
+        <v>3.45000004768372</v>
+      </c>
+      <c r="E746" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="F746" t="n">
+        <v>3.46000003814697</v>
+      </c>
+      <c r="G746" t="s">
+        <v>150</v>
+      </c>
+      <c r="H746" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20608,7 +20608,7 @@
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
-        <v>45566.5904976852</v>
+        <v>45566.2916666667</v>
       </c>
       <c r="B746" t="n">
         <v>10779</v>
@@ -20629,6 +20629,32 @@
         <v>150</v>
       </c>
       <c r="H746" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>45567.5468055556</v>
+      </c>
+      <c r="B747" t="n">
+        <v>16938</v>
+      </c>
+      <c r="C747" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="D747" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="E747" t="n">
+        <v>3.44000005722046</v>
+      </c>
+      <c r="F747" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="G747" t="s">
+        <v>286</v>
+      </c>
+      <c r="H747" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20634,7 +20634,7 @@
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
-        <v>45567.5468055556</v>
+        <v>45567.2916666667</v>
       </c>
       <c r="B747" t="n">
         <v>16938</v>
@@ -20655,6 +20655,32 @@
         <v>286</v>
       </c>
       <c r="H747" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>45568.6451388889</v>
+      </c>
+      <c r="B748" t="n">
+        <v>19633</v>
+      </c>
+      <c r="C748" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="D748" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="E748" t="n">
+        <v>3.48000001907349</v>
+      </c>
+      <c r="F748" t="n">
+        <v>3.51999998092651</v>
+      </c>
+      <c r="G748" t="s">
+        <v>218</v>
+      </c>
+      <c r="H748" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20660,7 +20660,7 @@
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
-        <v>45568.6451388889</v>
+        <v>45568.2916666667</v>
       </c>
       <c r="B748" t="n">
         <v>19633</v>
@@ -20681,6 +20681,32 @@
         <v>218</v>
       </c>
       <c r="H748" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>45569.6496064815</v>
+      </c>
+      <c r="B749" t="n">
+        <v>247164</v>
+      </c>
+      <c r="C749" t="n">
+        <v>3.75999999046326</v>
+      </c>
+      <c r="D749" t="n">
+        <v>3.71000003814697</v>
+      </c>
+      <c r="E749" t="n">
+        <v>3.71000003814697</v>
+      </c>
+      <c r="F749" t="n">
+        <v>3.74000000953674</v>
+      </c>
+      <c r="G749" t="s">
+        <v>219</v>
+      </c>
+      <c r="H749" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20686,7 +20686,7 @@
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
-        <v>45569.6496064815</v>
+        <v>45569.2916666667</v>
       </c>
       <c r="B749" t="n">
         <v>247164</v>
@@ -20707,6 +20707,32 @@
         <v>219</v>
       </c>
       <c r="H749" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>45572.6494444444</v>
+      </c>
+      <c r="B750" t="n">
+        <v>211417</v>
+      </c>
+      <c r="C750" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D750" t="n">
+        <v>3.73000001907349</v>
+      </c>
+      <c r="E750" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F750" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="G750" t="s">
+        <v>139</v>
+      </c>
+      <c r="H750" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -897,6 +897,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.42000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76999998092651</t>
   </si>
 </sst>
 </file>
@@ -20712,7 +20715,7 @@
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
-        <v>45572.6494444444</v>
+        <v>45572.2916666667</v>
       </c>
       <c r="B750" t="n">
         <v>211417</v>
@@ -20733,6 +20736,32 @@
         <v>139</v>
       </c>
       <c r="H750" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>45573.649537037</v>
+      </c>
+      <c r="B751" t="n">
+        <v>273276</v>
+      </c>
+      <c r="C751" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="D751" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="E751" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F751" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="G751" t="s">
+        <v>295</v>
+      </c>
+      <c r="H751" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20741,7 +20741,7 @@
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
-        <v>45573.649537037</v>
+        <v>45573.2916666667</v>
       </c>
       <c r="B751" t="n">
         <v>273276</v>
@@ -20762,6 +20762,32 @@
         <v>295</v>
       </c>
       <c r="H751" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>45574.618900463</v>
+      </c>
+      <c r="B752" t="n">
+        <v>62407</v>
+      </c>
+      <c r="C752" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="D752" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="E752" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F752" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="G752" t="s">
+        <v>295</v>
+      </c>
+      <c r="H752" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20767,7 +20767,7 @@
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
-        <v>45574.618900463</v>
+        <v>45574.2916666667</v>
       </c>
       <c r="B752" t="n">
         <v>62407</v>
@@ -20788,6 +20788,32 @@
         <v>295</v>
       </c>
       <c r="H752" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>45575.6420486111</v>
+      </c>
+      <c r="B753" t="n">
+        <v>15155</v>
+      </c>
+      <c r="C753" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D753" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="E753" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F753" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="G753" t="s">
+        <v>139</v>
+      </c>
+      <c r="H753" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -900,6 +900,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.76999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78999996185303</t>
   </si>
 </sst>
 </file>
@@ -20793,7 +20796,7 @@
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
-        <v>45575.6420486111</v>
+        <v>45575.2916666667</v>
       </c>
       <c r="B753" t="n">
         <v>15155</v>
@@ -20814,6 +20817,32 @@
         <v>139</v>
       </c>
       <c r="H753" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>45576.641712963</v>
+      </c>
+      <c r="B754" t="n">
+        <v>94957</v>
+      </c>
+      <c r="C754" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D754" t="n">
+        <v>3.76999998092651</v>
+      </c>
+      <c r="E754" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F754" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G754" t="s">
+        <v>296</v>
+      </c>
+      <c r="H754" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20822,7 +20822,7 @@
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
-        <v>45576.641712963</v>
+        <v>45576.2916666667</v>
       </c>
       <c r="B754" t="n">
         <v>94957</v>
@@ -20843,6 +20843,32 @@
         <v>296</v>
       </c>
       <c r="H754" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>45579.6389699074</v>
+      </c>
+      <c r="B755" t="n">
+        <v>11978</v>
+      </c>
+      <c r="C755" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="D755" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E755" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F755" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="G755" t="s">
+        <v>139</v>
+      </c>
+      <c r="H755" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20848,7 +20848,7 @@
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
-        <v>45579.6389699074</v>
+        <v>45579.2916666667</v>
       </c>
       <c r="B755" t="n">
         <v>11978</v>
@@ -20869,6 +20869,32 @@
         <v>139</v>
       </c>
       <c r="H755" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>45580.6495601852</v>
+      </c>
+      <c r="B756" t="n">
+        <v>51328</v>
+      </c>
+      <c r="C756" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D756" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E756" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F756" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="G756" t="s">
+        <v>139</v>
+      </c>
+      <c r="H756" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20874,7 +20874,7 @@
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
-        <v>45580.6495601852</v>
+        <v>45580.2916666667</v>
       </c>
       <c r="B756" t="n">
         <v>51328</v>
@@ -20895,6 +20895,32 @@
         <v>139</v>
       </c>
       <c r="H756" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>45581.6496296296</v>
+      </c>
+      <c r="B757" t="n">
+        <v>66858</v>
+      </c>
+      <c r="C757" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D757" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E757" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F757" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="G757" t="s">
+        <v>139</v>
+      </c>
+      <c r="H757" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20900,7 +20900,7 @@
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
-        <v>45581.6496296296</v>
+        <v>45581.2916666667</v>
       </c>
       <c r="B757" t="n">
         <v>66858</v>
@@ -20921,6 +20921,32 @@
         <v>139</v>
       </c>
       <c r="H757" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>45582.6433333333</v>
+      </c>
+      <c r="B758" t="n">
+        <v>59522</v>
+      </c>
+      <c r="C758" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D758" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E758" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F758" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G758" t="s">
+        <v>296</v>
+      </c>
+      <c r="H758" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20926,7 +20926,7 @@
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
-        <v>45582.6433333333</v>
+        <v>45582.2916666667</v>
       </c>
       <c r="B758" t="n">
         <v>59522</v>
@@ -20947,6 +20947,32 @@
         <v>296</v>
       </c>
       <c r="H758" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>45583.6494675926</v>
+      </c>
+      <c r="B759" t="n">
+        <v>34291</v>
+      </c>
+      <c r="C759" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D759" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E759" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F759" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G759" t="s">
+        <v>296</v>
+      </c>
+      <c r="H759" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20952,7 +20952,7 @@
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
-        <v>45583.6494675926</v>
+        <v>45583.2916666667</v>
       </c>
       <c r="B759" t="n">
         <v>34291</v>
@@ -20973,6 +20973,32 @@
         <v>296</v>
       </c>
       <c r="H759" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>45586.649375</v>
+      </c>
+      <c r="B760" t="n">
+        <v>18948</v>
+      </c>
+      <c r="C760" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D760" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E760" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F760" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G760" t="s">
+        <v>296</v>
+      </c>
+      <c r="H760" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -20978,7 +20978,7 @@
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
-        <v>45586.649375</v>
+        <v>45586.2916666667</v>
       </c>
       <c r="B760" t="n">
         <v>18948</v>
@@ -20999,6 +20999,32 @@
         <v>296</v>
       </c>
       <c r="H760" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>45587.6494097222</v>
+      </c>
+      <c r="B761" t="n">
+        <v>11363</v>
+      </c>
+      <c r="C761" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D761" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E761" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F761" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G761" t="s">
+        <v>296</v>
+      </c>
+      <c r="H761" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21004,13 +21004,13 @@
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
-        <v>45587.6494097222</v>
+        <v>45588.6306712963</v>
       </c>
       <c r="B761" t="n">
-        <v>11363</v>
+        <v>35855</v>
       </c>
       <c r="C761" t="n">
-        <v>3.78999996185303</v>
+        <v>3.77999997138977</v>
       </c>
       <c r="D761" t="n">
         <v>3.77999997138977</v>
@@ -21019,10 +21019,10 @@
         <v>3.77999997138977</v>
       </c>
       <c r="F761" t="n">
-        <v>3.78999996185303</v>
+        <v>3.77999997138977</v>
       </c>
       <c r="G761" t="s">
-        <v>296</v>
+        <v>139</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21004,13 +21004,13 @@
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
-        <v>45588.6306712963</v>
+        <v>45587.2916666667</v>
       </c>
       <c r="B761" t="n">
-        <v>35855</v>
+        <v>11363</v>
       </c>
       <c r="C761" t="n">
-        <v>3.77999997138977</v>
+        <v>3.78999996185303</v>
       </c>
       <c r="D761" t="n">
         <v>3.77999997138977</v>
@@ -21019,12 +21019,64 @@
         <v>3.77999997138977</v>
       </c>
       <c r="F761" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G761" t="s">
+        <v>296</v>
+      </c>
+      <c r="H761" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>45588.2916666667</v>
+      </c>
+      <c r="B762" t="n">
+        <v>35855</v>
+      </c>
+      <c r="C762" t="n">
         <v>3.77999997138977</v>
       </c>
-      <c r="G761" t="s">
+      <c r="D762" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E762" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F762" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="G762" t="s">
         <v>139</v>
       </c>
-      <c r="H761" t="s">
+      <c r="H762" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>45589.6495486111</v>
+      </c>
+      <c r="B763" t="n">
+        <v>718841</v>
+      </c>
+      <c r="C763" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D763" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E763" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F763" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G763" t="s">
+        <v>296</v>
+      </c>
+      <c r="H763" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21056,7 +21056,7 @@
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
-        <v>45589.6495486111</v>
+        <v>45589.2916666667</v>
       </c>
       <c r="B763" t="n">
         <v>718841</v>
@@ -21077,6 +21077,32 @@
         <v>296</v>
       </c>
       <c r="H763" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>45590.6404513889</v>
+      </c>
+      <c r="B764" t="n">
+        <v>25731</v>
+      </c>
+      <c r="C764" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D764" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="E764" t="n">
+        <v>3.77999997138977</v>
+      </c>
+      <c r="F764" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G764" t="s">
+        <v>296</v>
+      </c>
+      <c r="H764" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21082,19 +21082,19 @@
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
-        <v>45590.6404513889</v>
+        <v>45590.2916666667</v>
       </c>
       <c r="B764" t="n">
-        <v>25731</v>
+        <v>26756</v>
       </c>
       <c r="C764" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D764" t="n">
         <v>3.78999996185303</v>
       </c>
-      <c r="D764" t="n">
-        <v>3.77999997138977</v>
-      </c>
       <c r="E764" t="n">
-        <v>3.77999997138977</v>
+        <v>3.78999996185303</v>
       </c>
       <c r="F764" t="n">
         <v>3.78999996185303</v>
@@ -21103,6 +21103,32 @@
         <v>296</v>
       </c>
       <c r="H764" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>45593.6913078704</v>
+      </c>
+      <c r="B765" t="n">
+        <v>12283</v>
+      </c>
+      <c r="C765" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D765" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E765" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F765" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G765" t="s">
+        <v>296</v>
+      </c>
+      <c r="H765" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21108,7 +21108,7 @@
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
-        <v>45593.6913078704</v>
+        <v>45593.3333333333</v>
       </c>
       <c r="B765" t="n">
         <v>12283</v>
@@ -21129,6 +21129,32 @@
         <v>296</v>
       </c>
       <c r="H765" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>45594.6424189815</v>
+      </c>
+      <c r="B766" t="n">
+        <v>23933</v>
+      </c>
+      <c r="C766" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D766" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E766" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F766" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G766" t="s">
+        <v>296</v>
+      </c>
+      <c r="H766" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21134,7 +21134,7 @@
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
-        <v>45594.6424189815</v>
+        <v>45594.3333333333</v>
       </c>
       <c r="B766" t="n">
         <v>23933</v>
@@ -21155,6 +21155,32 @@
         <v>296</v>
       </c>
       <c r="H766" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>45595.599525463</v>
+      </c>
+      <c r="B767" t="n">
+        <v>4650</v>
+      </c>
+      <c r="C767" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D767" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E767" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F767" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G767" t="s">
+        <v>296</v>
+      </c>
+      <c r="H767" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21160,7 +21160,7 @@
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
-        <v>45595.599525463</v>
+        <v>45595.3333333333</v>
       </c>
       <c r="B767" t="n">
         <v>4650</v>
@@ -21181,6 +21181,32 @@
         <v>296</v>
       </c>
       <c r="H767" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>45596.6912384259</v>
+      </c>
+      <c r="B768" t="n">
+        <v>15840</v>
+      </c>
+      <c r="C768" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D768" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E768" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F768" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G768" t="s">
+        <v>296</v>
+      </c>
+      <c r="H768" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21186,7 +21186,7 @@
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
-        <v>45596.6912384259</v>
+        <v>45596.3333333333</v>
       </c>
       <c r="B768" t="n">
         <v>15840</v>
@@ -21207,6 +21207,58 @@
         <v>296</v>
       </c>
       <c r="H768" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>45597.3333333333</v>
+      </c>
+      <c r="B769" t="n">
+        <v>45885</v>
+      </c>
+      <c r="C769" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D769" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E769" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F769" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G769" t="s">
+        <v>296</v>
+      </c>
+      <c r="H769" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>45600.6912847222</v>
+      </c>
+      <c r="B770" t="n">
+        <v>547465</v>
+      </c>
+      <c r="C770" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D770" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E770" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="F770" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G770" t="s">
+        <v>296</v>
+      </c>
+      <c r="H770" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21238,7 +21238,7 @@
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
-        <v>45600.6912847222</v>
+        <v>45600.3333333333</v>
       </c>
       <c r="B770" t="n">
         <v>547465</v>
@@ -21259,6 +21259,32 @@
         <v>296</v>
       </c>
       <c r="H770" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>45601.6524189815</v>
+      </c>
+      <c r="B771" t="n">
+        <v>71946</v>
+      </c>
+      <c r="C771" t="n">
+        <v>3.80999994277954</v>
+      </c>
+      <c r="D771" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="E771" t="n">
+        <v>3.80999994277954</v>
+      </c>
+      <c r="F771" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="G771" t="s">
+        <v>140</v>
+      </c>
+      <c r="H771" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21264,7 +21264,7 @@
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
-        <v>45601.6524189815</v>
+        <v>45601.3333333333</v>
       </c>
       <c r="B771" t="n">
         <v>71946</v>
@@ -21285,6 +21285,32 @@
         <v>140</v>
       </c>
       <c r="H771" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>45602.6911226852</v>
+      </c>
+      <c r="B772" t="n">
+        <v>179047</v>
+      </c>
+      <c r="C772" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D772" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E772" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="F772" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="G772" t="s">
+        <v>140</v>
+      </c>
+      <c r="H772" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21290,7 +21290,7 @@
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
-        <v>45602.6911226852</v>
+        <v>45602.3333333333</v>
       </c>
       <c r="B772" t="n">
         <v>179047</v>
@@ -21311,6 +21311,32 @@
         <v>140</v>
       </c>
       <c r="H772" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>45603.6861805556</v>
+      </c>
+      <c r="B773" t="n">
+        <v>34793</v>
+      </c>
+      <c r="C773" t="n">
+        <v>3.79999995231628</v>
+      </c>
+      <c r="D773" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E773" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F773" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G773" t="s">
+        <v>296</v>
+      </c>
+      <c r="H773" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21316,7 +21316,7 @@
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
-        <v>45603.6861805556</v>
+        <v>45603.3333333333</v>
       </c>
       <c r="B773" t="n">
         <v>34793</v>
@@ -21337,6 +21337,32 @@
         <v>296</v>
       </c>
       <c r="H773" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>45604.5140856481</v>
+      </c>
+      <c r="B774" t="n">
+        <v>9008</v>
+      </c>
+      <c r="C774" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D774" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E774" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F774" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G774" t="s">
+        <v>296</v>
+      </c>
+      <c r="H774" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21342,7 +21342,7 @@
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
-        <v>45604.5140856481</v>
+        <v>45604.3333333333</v>
       </c>
       <c r="B774" t="n">
         <v>9008</v>
@@ -21363,6 +21363,32 @@
         <v>296</v>
       </c>
       <c r="H774" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>45607.6656712963</v>
+      </c>
+      <c r="B775" t="n">
+        <v>4925</v>
+      </c>
+      <c r="C775" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D775" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E775" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F775" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G775" t="s">
+        <v>296</v>
+      </c>
+      <c r="H775" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21368,7 +21368,7 @@
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
-        <v>45607.6656712963</v>
+        <v>45607.3333333333</v>
       </c>
       <c r="B775" t="n">
         <v>4925</v>
@@ -21389,6 +21389,32 @@
         <v>296</v>
       </c>
       <c r="H775" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>45608.6838310185</v>
+      </c>
+      <c r="B776" t="n">
+        <v>9401</v>
+      </c>
+      <c r="C776" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D776" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E776" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F776" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G776" t="s">
+        <v>296</v>
+      </c>
+      <c r="H776" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21394,7 +21394,7 @@
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
-        <v>45608.6838310185</v>
+        <v>45608.3333333333</v>
       </c>
       <c r="B776" t="n">
         <v>9401</v>

--- a/data/DTH.MI.xlsx
+++ b/data/DTH.MI.xlsx
@@ -21418,6 +21418,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>45609.3333333333</v>
+      </c>
+      <c r="B777" t="n">
+        <v>0</v>
+      </c>
+      <c r="C777" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="D777" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="E777" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="F777" t="n">
+        <v>3.78999996185303</v>
+      </c>
+      <c r="G777" t="s">
+        <v>296</v>
+      </c>
+      <c r="H777" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
